--- a/Practico/Trabajos Practicos/TP12/TP12_CasosDePrueba.xlsx
+++ b/Practico/Trabajos Practicos/TP12/TP12_CasosDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Facu\4\ISW\ISW_G9\Practico\Trabajos Practicos\TP12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8599C990-C9D4-4589-9AD2-0FACC3E65633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836EDCEE-22B0-4FE2-843A-B0CD13B01FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,9 +390,6 @@
   </si>
   <si>
     <t>Media</t>
-  </si>
-  <si>
-    <t>Realizar pedido para envio lo antes posible y pago efectivo, con calle no existente.</t>
   </si>
   <si>
     <t>1. El cliente selecciona "Realizar pedido a comercio adherido".
@@ -832,6 +829,9 @@
   <si>
     <t xml:space="preserve">•usuario "Facundito" logueado con permiso de cliente. 
 •ciudades "Córdoba, Villa Gral Belgrano, San Francisco" cargadas. </t>
+  </si>
+  <si>
+    <t>Realizar pedido para envio lo antes posible y pago efectivo, con calle no existente y ciudad no cubierta por el servicio.</t>
   </si>
 </sst>
 </file>
@@ -1599,28 +1599,8 @@
     <xf numFmtId="14" fontId="18" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -1640,31 +1620,12 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1681,6 +1642,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2308,12 +2308,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -2452,7 +2452,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -2521,7 +2521,7 @@
       <c r="C17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="65" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="9"/>
@@ -2557,12 +2557,12 @@
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2742,8 +2742,8 @@
   <dimension ref="A1:AP1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2818,30 +2818,30 @@
       <c r="AP1" s="28"/>
     </row>
     <row r="2" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="87"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="73"/>
       <c r="W2" s="29"/>
       <c r="X2" s="28"/>
       <c r="Y2" s="28"/>
@@ -2864,28 +2864,28 @@
       <c r="AP2" s="28"/>
     </row>
     <row r="3" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="93"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="75"/>
       <c r="W3" s="29"/>
       <c r="X3" s="28"/>
       <c r="Y3" s="28"/>
@@ -2908,28 +2908,28 @@
       <c r="AP3" s="28"/>
     </row>
     <row r="4" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="98"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="77"/>
       <c r="W4" s="29"/>
       <c r="X4" s="28"/>
       <c r="Y4" s="28"/>
@@ -2952,19 +2952,19 @@
       <c r="AP4" s="28"/>
     </row>
     <row r="5" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="101" t="s">
-        <v>205</v>
+      <c r="B5" s="104"/>
+      <c r="C5" s="78" t="s">
+        <v>204</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -3088,34 +3088,34 @@
       <c r="AP7" s="28"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71" t="s">
+      <c r="A8" s="106"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71" t="s">
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="71" t="s">
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="70"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="36"/>
       <c r="X8" s="36"/>
       <c r="Y8" s="36"/>
@@ -3138,70 +3138,70 @@
       <c r="AP8" s="36"/>
     </row>
     <row r="9" spans="1:42" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="103" t="s">
+      <c r="F9" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="103" t="s">
+      <c r="G9" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="103" t="s">
+      <c r="H9" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="I9" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="103" t="s">
+      <c r="J9" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="104" t="s">
+      <c r="K9" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="L9" s="103" t="s">
+      <c r="L9" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="M9" s="103" t="s">
+      <c r="M9" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="103" t="s">
+      <c r="N9" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="103" t="s">
+      <c r="O9" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="104" t="s">
+      <c r="P9" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" s="103" t="s">
+      <c r="Q9" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="R9" s="103" t="s">
+      <c r="R9" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="S9" s="103" t="s">
+      <c r="S9" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="T9" s="103" t="s">
+      <c r="T9" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="U9" s="104" t="s">
+      <c r="U9" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="V9" s="103" t="s">
+      <c r="V9" s="80" t="s">
         <v>91</v>
       </c>
       <c r="W9" s="28"/>
@@ -3273,26 +3273,26 @@
       <c r="A11" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="67" t="s">
         <v>95</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="G11" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="77"/>
-      <c r="I11" s="79" t="s">
+      <c r="H11" s="67"/>
+      <c r="I11" s="69" t="s">
         <v>98</v>
       </c>
       <c r="J11" s="48"/>
@@ -3333,26 +3333,26 @@
       <c r="A12" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="54" t="s">
-        <v>207</v>
+      <c r="E12" s="55" t="s">
+        <v>208</v>
       </c>
-      <c r="E12" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="F12" s="77" t="s">
+      <c r="F12" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="80" t="s">
+      <c r="G12" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="79" t="s">
+      <c r="H12" s="67"/>
+      <c r="I12" s="69" t="s">
         <v>98</v>
       </c>
       <c r="J12" s="52"/>
@@ -3393,26 +3393,26 @@
       <c r="A13" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="66" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="59" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="F13" s="80" t="s">
+      <c r="G13" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="77"/>
-      <c r="I13" s="79" t="s">
+      <c r="H13" s="67"/>
+      <c r="I13" s="69" t="s">
         <v>98</v>
       </c>
       <c r="J13" s="52"/>
@@ -3451,28 +3451,28 @@
     </row>
     <row r="14" spans="1:42" ht="132" x14ac:dyDescent="0.2">
       <c r="A14" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="66" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="F14" s="77" t="s">
+      <c r="G14" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="79" t="s">
+      <c r="H14" s="67"/>
+      <c r="I14" s="69" t="s">
         <v>98</v>
       </c>
       <c r="J14" s="52"/>
@@ -3511,28 +3511,28 @@
     </row>
     <row r="15" spans="1:42" ht="240" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="76" t="s">
-        <v>102</v>
+      <c r="E15" s="46" t="s">
+        <v>209</v>
       </c>
-      <c r="C15" s="76" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" s="54" t="s">
+      <c r="F15" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="F15" s="77" t="s">
+      <c r="G15" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="79" t="s">
+      <c r="H15" s="67"/>
+      <c r="I15" s="69" t="s">
         <v>98</v>
       </c>
       <c r="J15" s="52"/>
@@ -3571,28 +3571,28 @@
     </row>
     <row r="16" spans="1:42" ht="216" x14ac:dyDescent="0.2">
       <c r="A16" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="76" t="s">
-        <v>102</v>
+      <c r="E16" s="46" t="s">
+        <v>209</v>
       </c>
-      <c r="C16" s="76" t="s">
-        <v>206</v>
-      </c>
-      <c r="D16" s="54" t="s">
+      <c r="F16" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="F16" s="77" t="s">
+      <c r="G16" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="77"/>
-      <c r="I16" s="79" t="s">
+      <c r="H16" s="67"/>
+      <c r="I16" s="69" t="s">
         <v>98</v>
       </c>
       <c r="J16" s="52"/>
@@ -3631,28 +3631,28 @@
     </row>
     <row r="17" spans="1:42" ht="216" x14ac:dyDescent="0.2">
       <c r="A17" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="76" t="s">
-        <v>102</v>
+      <c r="E17" s="46" t="s">
+        <v>209</v>
       </c>
-      <c r="C17" s="76" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" s="54" t="s">
+      <c r="F17" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="F17" s="77" t="s">
+      <c r="G17" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" s="77"/>
-      <c r="I17" s="79" t="s">
+      <c r="H17" s="67"/>
+      <c r="I17" s="69" t="s">
         <v>98</v>
       </c>
       <c r="J17" s="52"/>
@@ -3691,28 +3691,28 @@
     </row>
     <row r="18" spans="1:42" ht="192" x14ac:dyDescent="0.2">
       <c r="A18" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="66" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="E18" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="F18" s="77" t="s">
+      <c r="G18" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="77"/>
-      <c r="I18" s="79" t="s">
+      <c r="H18" s="67"/>
+      <c r="I18" s="69" t="s">
         <v>98</v>
       </c>
       <c r="J18" s="52"/>
@@ -3751,28 +3751,28 @@
     </row>
     <row r="19" spans="1:42" ht="144" x14ac:dyDescent="0.2">
       <c r="A19" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="66" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="E19" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="F19" s="78" t="s">
+      <c r="G19" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="77"/>
-      <c r="I19" s="79" t="s">
+      <c r="H19" s="67"/>
+      <c r="I19" s="69" t="s">
         <v>98</v>
       </c>
       <c r="J19" s="52"/>
@@ -3811,28 +3811,28 @@
     </row>
     <row r="20" spans="1:42" ht="144" x14ac:dyDescent="0.2">
       <c r="A20" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="66" t="s">
         <v>102</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="F20" s="78" t="s">
+      <c r="G20" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="79" t="s">
+      <c r="H20" s="67"/>
+      <c r="I20" s="69" t="s">
         <v>98</v>
       </c>
       <c r="J20" s="52"/>
@@ -3871,28 +3871,28 @@
     </row>
     <row r="21" spans="1:42" ht="144" x14ac:dyDescent="0.2">
       <c r="A21" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="66" t="s">
         <v>102</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="F21" s="78" t="s">
+      <c r="G21" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="79" t="s">
+      <c r="H21" s="67"/>
+      <c r="I21" s="69" t="s">
         <v>98</v>
       </c>
       <c r="J21" s="52"/>
@@ -3931,28 +3931,28 @@
     </row>
     <row r="22" spans="1:42" ht="132" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="66" t="s">
         <v>94</v>
       </c>
       <c r="D22" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="F22" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="77"/>
-      <c r="I22" s="79" t="s">
+      <c r="H22" s="67"/>
+      <c r="I22" s="69" t="s">
         <v>98</v>
       </c>
       <c r="J22" s="52"/>
@@ -3991,28 +3991,28 @@
     </row>
     <row r="23" spans="1:42" ht="108" x14ac:dyDescent="0.2">
       <c r="A23" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="66" t="s">
         <v>93</v>
       </c>
       <c r="C23" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="81" t="s">
+      <c r="E23" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="F23" s="77" t="s">
+      <c r="G23" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="G23" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="77"/>
-      <c r="I23" s="79" t="s">
+      <c r="H23" s="67"/>
+      <c r="I23" s="69" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="52"/>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="24" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="45"/>
       <c r="C24" s="59"/>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="25" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="45"/>
       <c r="C25" s="59"/>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="26" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="45"/>
       <c r="C26" s="59"/>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="27" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="45"/>
       <c r="C27" s="59"/>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="28" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="45"/>
       <c r="C28" s="59"/>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="29" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="45"/>
       <c r="C29" s="59"/>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="30" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="45"/>
       <c r="C30" s="59"/>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="31" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B31" s="45"/>
       <c r="C31" s="59"/>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="32" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="45"/>
       <c r="C32" s="59"/>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="33" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="59"/>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="34" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" s="45"/>
       <c r="C34" s="59"/>
@@ -4556,7 +4556,7 @@
     </row>
     <row r="35" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B35" s="45"/>
       <c r="C35" s="59"/>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="36" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B36" s="45"/>
       <c r="C36" s="59"/>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="37" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B37" s="45"/>
       <c r="C37" s="59"/>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="38" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" s="45"/>
       <c r="C38" s="59"/>
@@ -4740,7 +4740,7 @@
     </row>
     <row r="39" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B39" s="45"/>
       <c r="C39" s="59"/>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="40" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" s="45"/>
       <c r="C40" s="59"/>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="41" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" s="45"/>
       <c r="C41" s="59"/>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="42" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B42" s="45"/>
       <c r="C42" s="59"/>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="43" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B43" s="45"/>
       <c r="C43" s="59"/>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="44" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B44" s="45"/>
       <c r="C44" s="59"/>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="45" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B45" s="45"/>
       <c r="C45" s="59"/>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="46" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B46" s="45"/>
       <c r="C46" s="59"/>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="47" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B47" s="45"/>
       <c r="C47" s="59"/>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="48" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B48" s="45"/>
       <c r="C48" s="59"/>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="49" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B49" s="45"/>
       <c r="C49" s="59"/>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="50" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B50" s="45"/>
       <c r="C50" s="59"/>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="51" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B51" s="45"/>
       <c r="C51" s="59"/>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="52" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B52" s="45"/>
       <c r="C52" s="59"/>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="53" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B53" s="45"/>
       <c r="C53" s="59"/>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="54" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B54" s="45"/>
       <c r="C54" s="59"/>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="55" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B55" s="45"/>
       <c r="C55" s="59"/>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="56" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B56" s="45"/>
       <c r="C56" s="59"/>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="57" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" s="45"/>
       <c r="C57" s="59"/>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="58" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B58" s="45"/>
       <c r="C58" s="59"/>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="59" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B59" s="45"/>
       <c r="C59" s="59"/>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="60" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B60" s="45"/>
       <c r="C60" s="59"/>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="61" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B61" s="45"/>
       <c r="C61" s="59"/>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="62" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" s="45"/>
       <c r="C62" s="59"/>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="63" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B63" s="45"/>
       <c r="C63" s="59"/>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="64" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B64" s="45"/>
       <c r="C64" s="59"/>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="65" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B65" s="45"/>
       <c r="C65" s="59"/>
@@ -5982,7 +5982,7 @@
     </row>
     <row r="66" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B66" s="45"/>
       <c r="C66" s="59"/>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="67" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B67" s="45"/>
       <c r="C67" s="59"/>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="68" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B68" s="45"/>
       <c r="C68" s="59"/>
@@ -6120,7 +6120,7 @@
     </row>
     <row r="69" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B69" s="45"/>
       <c r="C69" s="59"/>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="70" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B70" s="45"/>
       <c r="C70" s="59"/>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="71" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B71" s="45"/>
       <c r="C71" s="59"/>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="72" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B72" s="45"/>
       <c r="C72" s="59"/>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="73" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B73" s="45"/>
       <c r="C73" s="62"/>
@@ -47139,16 +47139,16 @@
   </sheetData>
   <autoFilter ref="A9:AP73" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="10">
+    <mergeCell ref="A2:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="H8:L8"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="G2:L4"/>
     <mergeCell ref="M2:R4"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A2:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J10 J12:J1000 J623:J1000 J749:J1000 J751:J1000 J753:J1000 J755:J1000 J757:J1000 J759:J1000 J761:J1000 J763:J1000 J765:J1000 J919:J1000 O9:O10 O12:O1000 O623:O1000 O749:O1000 O751:O1000 O753:O1000 O755:O1000 O757:O1000 O759:O1000 O761:O1000 O763:O1000 O765:O1000 O919:O1000">
     <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
@@ -47428,28 +47428,28 @@
       <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="79" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="C2" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="D2" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="E2" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="F2" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="105" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="83" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Practico/Trabajos Practicos/TP12/TP12_CasosDePrueba.xlsx
+++ b/Practico/Trabajos Practicos/TP12/TP12_CasosDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Facu\4\ISW\ISW_G9\Practico\Trabajos Practicos\TP12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836EDCEE-22B0-4FE2-843A-B0CD13B01FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0612E63C-9DB7-4EAE-82B4-F2F999B1A8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -805,9 +805,6 @@
     <t>1,2,3,4,5,6,8,9,10,11,12,13,14,15,16,17</t>
   </si>
   <si>
-    <t>Realizar pedido para envio con fecha especifica y pago con tarjeta de debito MasterCard.</t>
-  </si>
-  <si>
     <t>•usuario "Facundito" logueado con permiso de cliente.
 •ciudades "Córdoba, Villa Gral Belgrano, San Francisco" cargadas.
 •Comercio "McDonalds" cargado en el carrito de compra.
@@ -832,6 +829,9 @@
   </si>
   <si>
     <t>Realizar pedido para envio lo antes posible y pago efectivo, con calle no existente y ciudad no cubierta por el servicio.</t>
+  </si>
+  <si>
+    <t>Realizar pedido para envio con fecha especifica y pago con tarjeta de crédito MasterCard.</t>
   </si>
 </sst>
 </file>
@@ -1649,28 +1649,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1680,8 +1665,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2743,7 +2743,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2818,26 +2818,26 @@
       <c r="AP1" s="28"/>
     </row>
     <row r="2" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
       <c r="S2" s="72"/>
       <c r="T2" s="72"/>
       <c r="U2" s="72"/>
@@ -2864,24 +2864,24 @@
       <c r="AP2" s="28"/>
     </row>
     <row r="3" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="92"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="91"/>
       <c r="S3" s="74"/>
       <c r="T3" s="74"/>
       <c r="U3" s="74"/>
@@ -2908,24 +2908,24 @@
       <c r="AP3" s="28"/>
     </row>
     <row r="4" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
       <c r="S4" s="76"/>
       <c r="T4" s="76"/>
       <c r="U4" s="76"/>
@@ -2952,19 +2952,19 @@
       <c r="AP4" s="28"/>
     </row>
     <row r="5" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -3088,34 +3088,34 @@
       <c r="AP7" s="28"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A8" s="106"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="87" t="s">
+      <c r="A8" s="98"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="87" t="s">
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="87" t="s">
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="89"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="36"/>
       <c r="X8" s="36"/>
       <c r="Y8" s="36"/>
@@ -3283,7 +3283,7 @@
         <v>95</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F11" s="67" t="s">
         <v>96</v>
@@ -3340,10 +3340,10 @@
         <v>205</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" s="67" t="s">
         <v>100</v>
@@ -3400,10 +3400,10 @@
         <v>94</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F13" s="70" t="s">
         <v>103</v>
@@ -3463,7 +3463,7 @@
         <v>106</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F14" s="67" t="s">
         <v>107</v>
@@ -3523,7 +3523,7 @@
         <v>110</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F15" s="67" t="s">
         <v>111</v>
@@ -3583,7 +3583,7 @@
         <v>114</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F16" s="67" t="s">
         <v>115</v>
@@ -3643,7 +3643,7 @@
         <v>118</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F17" s="67" t="s">
         <v>119</v>
@@ -3703,7 +3703,7 @@
         <v>123</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F18" s="67" t="s">
         <v>124</v>
@@ -3763,7 +3763,7 @@
         <v>128</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F19" s="68" t="s">
         <v>129</v>
@@ -3823,7 +3823,7 @@
         <v>132</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F20" s="68" t="s">
         <v>133</v>
@@ -3883,7 +3883,7 @@
         <v>136</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F21" s="68" t="s">
         <v>137</v>
@@ -3943,7 +3943,7 @@
         <v>140</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F22" s="67" t="s">
         <v>96</v>
@@ -4003,7 +4003,7 @@
         <v>144</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F23" s="67" t="s">
         <v>145</v>
@@ -47139,16 +47139,16 @@
   </sheetData>
   <autoFilter ref="A9:AP73" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="10">
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="G2:L4"/>
+    <mergeCell ref="M2:R4"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A2:F4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="H8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="G2:L4"/>
-    <mergeCell ref="M2:R4"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J10 J12:J1000 J623:J1000 J749:J1000 J751:J1000 J753:J1000 J755:J1000 J757:J1000 J759:J1000 J761:J1000 J763:J1000 J765:J1000 J919:J1000 O9:O10 O12:O1000 O623:O1000 O749:O1000 O751:O1000 O753:O1000 O755:O1000 O757:O1000 O759:O1000 O761:O1000 O763:O1000 O765:O1000 O919:O1000">
     <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">

--- a/Practico/Trabajos Practicos/TP12/TP12_CasosDePrueba.xlsx
+++ b/Practico/Trabajos Practicos/TP12/TP12_CasosDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Facu\4\ISW\ISW_G9\Practico\Trabajos Practicos\TP12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0612E63C-9DB7-4EAE-82B4-F2F999B1A8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F628D3-6AED-4FB0-AF30-5D1B0D39BB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="214">
   <si>
     <t>Número</t>
   </si>
@@ -833,6 +833,12 @@
   <si>
     <t>Realizar pedido para envio con fecha especifica y pago con tarjeta de crédito MasterCard.</t>
   </si>
+  <si>
+    <t>Paso</t>
+  </si>
+  <si>
+    <t>Fallo</t>
+  </si>
 </sst>
 </file>
 
@@ -1441,7 +1447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1649,13 +1655,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,23 +1686,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2741,9 +2750,9 @@
   </sheetPr>
   <dimension ref="A1:AP1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2755,8 +2764,8 @@
     <col min="5" max="5" width="35.85546875" customWidth="1"/>
     <col min="6" max="6" width="48.28515625" customWidth="1"/>
     <col min="7" max="7" width="52" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" customWidth="1"/>
@@ -2818,26 +2827,26 @@
       <c r="AP1" s="28"/>
     </row>
     <row r="2" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
       <c r="S2" s="72"/>
       <c r="T2" s="72"/>
       <c r="U2" s="72"/>
@@ -2864,24 +2873,24 @@
       <c r="AP2" s="28"/>
     </row>
     <row r="3" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="91"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="92"/>
       <c r="S3" s="74"/>
       <c r="T3" s="74"/>
       <c r="U3" s="74"/>
@@ -2908,24 +2917,24 @@
       <c r="AP3" s="28"/>
     </row>
     <row r="4" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
       <c r="S4" s="76"/>
       <c r="T4" s="76"/>
       <c r="U4" s="76"/>
@@ -2952,19 +2961,19 @@
       <c r="AP4" s="28"/>
     </row>
     <row r="5" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -3088,34 +3097,34 @@
       <c r="AP7" s="28"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A8" s="98"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101" t="s">
+      <c r="A8" s="106"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="101" t="s">
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="101" t="s">
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="S8" s="99"/>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="100"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="36"/>
       <c r="X8" s="36"/>
       <c r="Y8" s="36"/>
@@ -3291,13 +3300,17 @@
       <c r="G11" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="67"/>
+      <c r="H11" s="67" t="s">
+        <v>97</v>
+      </c>
       <c r="I11" s="69" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="J11" s="48"/>
       <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
+      <c r="L11" s="107">
+        <v>44859</v>
+      </c>
       <c r="M11" s="51"/>
       <c r="N11" s="52"/>
       <c r="O11" s="48"/>
@@ -3351,13 +3364,17 @@
       <c r="G12" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="67"/>
+      <c r="H12" s="67" t="s">
+        <v>97</v>
+      </c>
       <c r="I12" s="69" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="48"/>
-      <c r="L12" s="49"/>
+      <c r="L12" s="49">
+        <v>44859</v>
+      </c>
       <c r="M12" s="56"/>
       <c r="N12" s="52"/>
       <c r="O12" s="52"/>
@@ -3411,9 +3428,11 @@
       <c r="G13" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="67"/>
+      <c r="H13" s="67" t="s">
+        <v>97</v>
+      </c>
       <c r="I13" s="69" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="J13" s="52"/>
       <c r="K13" s="48"/>
@@ -47139,16 +47158,16 @@
   </sheetData>
   <autoFilter ref="A9:AP73" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="10">
+    <mergeCell ref="A2:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="H8:L8"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="G2:L4"/>
     <mergeCell ref="M2:R4"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A2:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J10 J12:J1000 J623:J1000 J749:J1000 J751:J1000 J753:J1000 J755:J1000 J757:J1000 J759:J1000 J761:J1000 J763:J1000 J765:J1000 J919:J1000 O9:O10 O12:O1000 O623:O1000 O749:O1000 O751:O1000 O753:O1000 O755:O1000 O757:O1000 O759:O1000 O761:O1000 O763:O1000 O765:O1000 O919:O1000">
     <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
